--- a/P1234.02_A1 PCB Specification.xlsx
+++ b/P1234.02_A1 PCB Specification.xlsx
@@ -3551,24 +3551,28 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <_dlc_DocId xmlns="0c73b90d-6ef5-4c42-bdc0-bada876cfd82">ZJ6UYR2TNKEC-1658724551-9457</_dlc_DocId>
+    <_dlc_DocId xmlns="0c73b90d-6ef5-4c42-bdc0-bada876cfd82">ZJ6UYR2TNKEC-717484593-2530752</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="0c73b90d-6ef5-4c42-bdc0-bada876cfd82">
-      <Url>https://trolex.sharepoint.com/Engineering/_layouts/15/DocIdRedir.aspx?ID=ZJ6UYR2TNKEC-1658724551-9457</Url>
-      <Description>ZJ6UYR2TNKEC-1658724551-9457</Description>
+      <Url>https://trolex.sharepoint.com/Engineering/_layouts/15/DocIdRedir.aspx?ID=ZJ6UYR2TNKEC-717484593-2530752</Url>
+      <Description>ZJ6UYR2TNKEC-717484593-2530752</Description>
     </_dlc_DocIdUrl>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0c73b90d-6ef5-4c42-bdc0-bada876cfd82" xsi:nil="true"/>
+    <Date_x002f_Timer xmlns="1a2dc94b-63b3-445e-aa8e-a1b224c66018" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a2dc94b-63b3-445e-aa8e-a1b224c66018">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F94A2D28CD4D374D9990F1591F09BA4E" ma:contentTypeVersion="165" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="182908a6583f313d0baa22ffce693793">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0c73b90d-6ef5-4c42-bdc0-bada876cfd82" xmlns:ns3="adfa80bf-e25a-483e-b294-b21ec610ec7c" xmlns:ns4="11d4206b-bde2-43e6-a4a4-253ec3cf9782" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="542c739af02f8e3e77e8fb56f24d1c1e" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B439B56EFED3F440B7D6ABF9BEFA4E0D" ma:contentTypeVersion="174" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2550b2403dae2b46488392de45c963ad">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0c73b90d-6ef5-4c42-bdc0-bada876cfd82" xmlns:ns3="1a2dc94b-63b3-445e-aa8e-a1b224c66018" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c7d5bee5c1f79a0290481d00d9fdeee" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="0c73b90d-6ef5-4c42-bdc0-bada876cfd82"/>
-    <xsd:import namespace="adfa80bf-e25a-483e-b294-b21ec610ec7c"/>
-    <xsd:import namespace="11d4206b-bde2-43e6-a4a4-253ec3cf9782"/>
+    <xsd:import namespace="1a2dc94b-63b3-445e-aa8e-a1b224c66018"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3577,20 +3581,28 @@
               <xsd:all>
                 <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:LastSharedByUser" minOccurs="0"/>
-                <xsd:element ref="ns3:LastSharedByTime" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
                 <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
                 <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:Date_x002f_Timer" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3601,12 +3613,12 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="19" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="17" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="18" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -3641,12 +3653,12 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_dlc_DocId" ma:index="14" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
+    <xsd:element name="_dlc_DocId" ma:index="12" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:indexed="true" ma:internalName="_dlc_DocId" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="15" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
+    <xsd:element name="_dlc_DocIdUrl" ma:index="13" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:URL">
@@ -3658,66 +3670,110 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="16" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="14" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Boolean"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="28" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{dc6815ea-ea09-4019-bd04-b5d248262b9a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0c73b90d-6ef5-4c42-bdc0-bada876cfd82">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="adfa80bf-e25a-483e-b294-b21ec610ec7c" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1a2dc94b-63b3-445e-aa8e-a1b224c66018" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="LastSharedByUser" ma:index="10" nillable="true" ma:displayName="Last Shared By User" ma:description="" ma:internalName="LastSharedByUser" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="LastSharedByTime" ma:index="11" nillable="true" ma:displayName="Last Shared By Time" ma:description="" ma:internalName="LastSharedByTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="21" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="23" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="24" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="25" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="27" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="507a51ed-d982-4ed0-9799-1e03b6c0bbee" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="29" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Date_x002f_Timer" ma:index="30" nillable="true" ma:displayName="Date/Timer" ma:description="Date/Time" ma:format="DateOnly" ma:internalName="Date_x002f_Timer">
       <xsd:simpleType>
         <xsd:restriction base="dms:DateTime"/>
       </xsd:simpleType>
     </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="11d4206b-bde2-43e6-a4a4-253ec3cf9782" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="31" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="32" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="23" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3891,24 +3947,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E61EBB5-F053-4BC3-B376-D1413C3F11FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="0c73b90d-6ef5-4c42-bdc0-bada876cfd82"/>
-    <ds:schemaRef ds:uri="adfa80bf-e25a-483e-b294-b21ec610ec7c"/>
-    <ds:schemaRef ds:uri="11d4206b-bde2-43e6-a4a4-253ec3cf9782"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C84F3C77-F99B-44A9-BE59-A5D757972476}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
